--- a/documentation/Supporting Documentation/CSE_360_Team20_documentation_timeline.xlsx
+++ b/documentation/Supporting Documentation/CSE_360_Team20_documentation_timeline.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gateway\git\cse_360_group_project\documentation\Supporting Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\cse_360_group_project\documentation\Supporting Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="13785" windowHeight="8265"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="13785" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Meetings</t>
   </si>
@@ -77,13 +77,22 @@
     <t>Finalization of documentation</t>
   </si>
   <si>
-    <t>Game prototype</t>
-  </si>
-  <si>
     <t>Due Date</t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>April 15th</t>
+  </si>
+  <si>
+    <t>April 29th</t>
+  </si>
+  <si>
+    <t>Game prototype, 50% features complete, first level done</t>
+  </si>
+  <si>
+    <t>Second level, all questions complete, final polish</t>
   </si>
 </sst>
 </file>
@@ -115,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -258,11 +267,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -279,6 +364,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,105 +653,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
     <col min="6" max="6" width="53.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2">
-        <v>42461</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3">
-        <v>42475</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="7">
-        <v>42489</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>16</v>
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
